--- a/CPRS/Excel/可利特.xlsx
+++ b/CPRS/Excel/可利特.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="9735"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="20730" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>项目</t>
   </si>
@@ -177,9 +177,6 @@
     <t>用于筛查男性前列腺肿瘤</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>用于筛查女性卵巢肿瘤</t>
   </si>
   <si>
@@ -287,14 +284,6 @@
   </si>
   <si>
     <t>阴囊触诊</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可利特体检检查模版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>血细胞分析（12项）</t>
@@ -485,11 +474,24 @@
     <t>必检项目合计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>姓名：</t>
+  </si>
+  <si>
+    <t>单位：</t>
+  </si>
+  <si>
+    <t>体检号：</t>
+  </si>
+  <si>
+    <t>可利特体检检查模版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -920,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,6 +1067,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1201,9 +1215,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,11 +1246,16 @@
       <color rgb="FF333399"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1313,6 +1329,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1347,6 +1364,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1522,415 +1540,657 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="90" t="s">
+    <row r="1" spans="1:256" ht="44.25" customHeight="1">
+      <c r="A1" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+    </row>
+    <row r="2" spans="1:256" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="49"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="49"/>
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="49"/>
+      <c r="CH2" s="49"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="49"/>
+      <c r="CK2" s="49"/>
+      <c r="CL2" s="49"/>
+      <c r="CM2" s="49"/>
+      <c r="CN2" s="49"/>
+      <c r="CO2" s="49"/>
+      <c r="CP2" s="49"/>
+      <c r="CQ2" s="49"/>
+      <c r="CR2" s="49"/>
+      <c r="CS2" s="49"/>
+      <c r="CT2" s="49"/>
+      <c r="CU2" s="49"/>
+      <c r="CV2" s="49"/>
+      <c r="CW2" s="49"/>
+      <c r="CX2" s="49"/>
+      <c r="CY2" s="49"/>
+      <c r="CZ2" s="49"/>
+      <c r="DA2" s="49"/>
+      <c r="DB2" s="49"/>
+      <c r="DC2" s="49"/>
+      <c r="DD2" s="49"/>
+      <c r="DE2" s="49"/>
+      <c r="DF2" s="49"/>
+      <c r="DG2" s="49"/>
+      <c r="DH2" s="49"/>
+      <c r="DI2" s="49"/>
+      <c r="DJ2" s="49"/>
+      <c r="DK2" s="49"/>
+      <c r="DL2" s="49"/>
+      <c r="DM2" s="49"/>
+      <c r="DN2" s="49"/>
+      <c r="DO2" s="49"/>
+      <c r="DP2" s="49"/>
+      <c r="DQ2" s="49"/>
+      <c r="DR2" s="49"/>
+      <c r="DS2" s="49"/>
+      <c r="DT2" s="49"/>
+      <c r="DU2" s="49"/>
+      <c r="DV2" s="49"/>
+      <c r="DW2" s="49"/>
+      <c r="DX2" s="49"/>
+      <c r="DY2" s="49"/>
+      <c r="DZ2" s="49"/>
+      <c r="EA2" s="49"/>
+      <c r="EB2" s="49"/>
+      <c r="EC2" s="49"/>
+      <c r="ED2" s="49"/>
+      <c r="EE2" s="49"/>
+      <c r="EF2" s="49"/>
+      <c r="EG2" s="49"/>
+      <c r="EH2" s="49"/>
+      <c r="EI2" s="49"/>
+      <c r="EJ2" s="49"/>
+      <c r="EK2" s="49"/>
+      <c r="EL2" s="49"/>
+      <c r="EM2" s="49"/>
+      <c r="EN2" s="49"/>
+      <c r="EO2" s="49"/>
+      <c r="EP2" s="49"/>
+      <c r="EQ2" s="49"/>
+      <c r="ER2" s="49"/>
+      <c r="ES2" s="49"/>
+      <c r="ET2" s="49"/>
+      <c r="EU2" s="49"/>
+      <c r="EV2" s="49"/>
+      <c r="EW2" s="49"/>
+      <c r="EX2" s="49"/>
+      <c r="EY2" s="49"/>
+      <c r="EZ2" s="49"/>
+      <c r="FA2" s="49"/>
+      <c r="FB2" s="49"/>
+      <c r="FC2" s="49"/>
+      <c r="FD2" s="49"/>
+      <c r="FE2" s="49"/>
+      <c r="FF2" s="49"/>
+      <c r="FG2" s="49"/>
+      <c r="FH2" s="49"/>
+      <c r="FI2" s="49"/>
+      <c r="FJ2" s="49"/>
+      <c r="FK2" s="49"/>
+      <c r="FL2" s="49"/>
+      <c r="FM2" s="49"/>
+      <c r="FN2" s="49"/>
+      <c r="FO2" s="49"/>
+      <c r="FP2" s="49"/>
+      <c r="FQ2" s="49"/>
+      <c r="FR2" s="49"/>
+      <c r="FS2" s="49"/>
+      <c r="FT2" s="49"/>
+      <c r="FU2" s="49"/>
+      <c r="FV2" s="49"/>
+      <c r="FW2" s="49"/>
+      <c r="FX2" s="49"/>
+      <c r="FY2" s="49"/>
+      <c r="FZ2" s="49"/>
+      <c r="GA2" s="49"/>
+      <c r="GB2" s="49"/>
+      <c r="GC2" s="49"/>
+      <c r="GD2" s="49"/>
+      <c r="GE2" s="49"/>
+      <c r="GF2" s="49"/>
+      <c r="GG2" s="49"/>
+      <c r="GH2" s="49"/>
+      <c r="GI2" s="49"/>
+      <c r="GJ2" s="49"/>
+      <c r="GK2" s="49"/>
+      <c r="GL2" s="49"/>
+      <c r="GM2" s="49"/>
+      <c r="GN2" s="49"/>
+      <c r="GO2" s="49"/>
+      <c r="GP2" s="49"/>
+      <c r="GQ2" s="49"/>
+      <c r="GR2" s="49"/>
+      <c r="GS2" s="49"/>
+      <c r="GT2" s="49"/>
+      <c r="GU2" s="49"/>
+      <c r="GV2" s="49"/>
+      <c r="GW2" s="49"/>
+      <c r="GX2" s="49"/>
+      <c r="GY2" s="49"/>
+      <c r="GZ2" s="49"/>
+      <c r="HA2" s="49"/>
+      <c r="HB2" s="49"/>
+      <c r="HC2" s="49"/>
+      <c r="HD2" s="49"/>
+      <c r="HE2" s="49"/>
+      <c r="HF2" s="49"/>
+      <c r="HG2" s="49"/>
+      <c r="HH2" s="49"/>
+      <c r="HI2" s="49"/>
+      <c r="HJ2" s="49"/>
+      <c r="HK2" s="49"/>
+      <c r="HL2" s="49"/>
+      <c r="HM2" s="49"/>
+      <c r="HN2" s="49"/>
+      <c r="HO2" s="49"/>
+      <c r="HP2" s="49"/>
+      <c r="HQ2" s="49"/>
+      <c r="HR2" s="49"/>
+      <c r="HS2" s="49"/>
+      <c r="HT2" s="49"/>
+      <c r="HU2" s="49"/>
+      <c r="HV2" s="49"/>
+      <c r="HW2" s="49"/>
+      <c r="HX2" s="49"/>
+      <c r="HY2" s="49"/>
+      <c r="HZ2" s="49"/>
+      <c r="IA2" s="49"/>
+      <c r="IB2" s="49"/>
+      <c r="IC2" s="49"/>
+      <c r="ID2" s="49"/>
+      <c r="IE2" s="49"/>
+      <c r="IF2" s="49"/>
+      <c r="IG2" s="49"/>
+      <c r="IH2" s="49"/>
+      <c r="II2" s="49"/>
+      <c r="IJ2" s="49"/>
+      <c r="IK2" s="49"/>
+      <c r="IL2" s="49"/>
+      <c r="IM2" s="49"/>
+      <c r="IN2" s="49"/>
+      <c r="IO2" s="49"/>
+      <c r="IP2" s="49"/>
+      <c r="IQ2" s="49"/>
+      <c r="IR2" s="49"/>
+      <c r="IS2" s="49"/>
+      <c r="IT2" s="49"/>
+      <c r="IU2" s="49"/>
+      <c r="IV2" s="49"/>
+    </row>
+    <row r="3" spans="1:256">
+      <c r="A3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="84" t="s">
+      <c r="G3" s="96"/>
+      <c r="H3" s="88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="91"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="14" t="s">
+    <row r="4" spans="1:256">
+      <c r="A4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="85"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5">
-      <c r="A4" s="86" t="s">
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="1:256" ht="31.5">
+      <c r="A5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>16</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>16</v>
       </c>
-      <c r="H4" s="94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="67.5">
-      <c r="A5" s="86"/>
-      <c r="B5" s="1">
+      <c r="H5" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="67.5">
+      <c r="A6" s="90"/>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>18</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>18</v>
       </c>
-      <c r="H5" s="94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="31.5">
-      <c r="A6" s="86"/>
-      <c r="B6" s="1">
+      <c r="H6" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" ht="31.5">
+      <c r="A7" s="90"/>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>16</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>16</v>
       </c>
-      <c r="H6" s="94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5">
-      <c r="A7" s="87"/>
-      <c r="B7" s="11">
+      <c r="H7" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" ht="40.5">
+      <c r="A8" s="91"/>
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>50</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <v>50</v>
       </c>
-      <c r="H7" s="94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A8" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97">
+      <c r="H8" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:256" ht="23.25" customHeight="1">
+      <c r="A9" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100">
         <v>100</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-    </row>
-    <row r="9" spans="1:8" ht="67.5">
-      <c r="A9" s="71" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+    </row>
+    <row r="10" spans="1:256" ht="67.5">
+      <c r="A10" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>120</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>120</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="1">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:256" ht="40.5" customHeight="1">
+      <c r="A11" s="75"/>
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E11" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3">
-        <v>75</v>
-      </c>
-      <c r="G10" s="3">
-        <v>75</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="54">
-      <c r="A11" s="71"/>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
       <c r="F11" s="3">
         <v>75</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="3">
+        <v>75</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:256" ht="54">
+      <c r="A12" s="75"/>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="3">
+        <v>75</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:256" ht="27">
+      <c r="A13" s="75"/>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>75</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:256" ht="27">
+      <c r="A14" s="75"/>
+      <c r="B14" s="11">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>70</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:256" ht="51" customHeight="1">
+      <c r="A15" s="75"/>
+      <c r="B15" s="11">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="20">
+        <v>20</v>
+      </c>
+      <c r="G15" s="20">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:256" ht="49.5" customHeight="1">
+      <c r="A16" s="75"/>
+      <c r="B16" s="10">
+        <v>11</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="27">
-      <c r="A12" s="71"/>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="3">
-        <v>75</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="27">
-      <c r="A13" s="71"/>
-      <c r="B13" s="11">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="4">
-        <v>70</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="51" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="11">
-        <v>10</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="20">
+      <c r="E16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="20">
+        <v>15</v>
+      </c>
+      <c r="G16" s="20">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A17" s="75"/>
+      <c r="B17" s="10">
+        <v>12</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="20">
+        <v>45</v>
+      </c>
+      <c r="G17" s="20">
+        <v>45</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1">
+      <c r="A18" s="75"/>
+      <c r="B18" s="61">
+        <v>13</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="70">
         <v>20</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G18" s="70">
         <v>20</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="10">
-        <v>11</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="20">
-        <v>15</v>
-      </c>
-      <c r="G15" s="20">
-        <v>15</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="10">
-        <v>12</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="20">
-        <v>45</v>
-      </c>
-      <c r="G16" s="20">
-        <v>45</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="57">
-        <v>13</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="66">
-        <v>20</v>
-      </c>
-      <c r="G17" s="66">
-        <v>20</v>
-      </c>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="21" t="s">
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A19" s="75"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="61"/>
-    </row>
-    <row r="19" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="10">
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="20" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A20" s="75"/>
+      <c r="B20" s="10">
         <v>14</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E20" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="F19" s="20">
-        <v>8</v>
-      </c>
-      <c r="G19" s="20">
-        <v>8</v>
-      </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="10">
-        <v>15</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="20">
         <v>8</v>
@@ -1940,41 +2200,41 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="36">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:8" ht="41.25" customHeight="1">
+      <c r="A21" s="75"/>
       <c r="B21" s="10">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="20">
+        <v>8</v>
+      </c>
+      <c r="G21" s="20">
+        <v>8</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="36">
+      <c r="A22" s="75"/>
+      <c r="B22" s="10">
         <v>16</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E22" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="F21" s="20">
-        <v>40</v>
-      </c>
-      <c r="G21" s="20">
-        <v>40</v>
-      </c>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="57">
-        <v>17</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="F22" s="20">
         <v>40</v>
@@ -1984,15 +2244,19 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
-      <c r="A23" s="71"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="80"/>
+    <row r="23" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A23" s="75"/>
+      <c r="B23" s="61">
+        <v>17</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="20">
         <v>40</v>
@@ -2002,449 +2266,467 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="24.75">
-      <c r="A24" s="71"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="80"/>
+    <row r="24" spans="1:8" ht="24">
+      <c r="A24" s="75"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="20">
+        <v>40</v>
+      </c>
+      <c r="G24" s="20">
+        <v>40</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="24.75">
+      <c r="A25" s="75"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F25" s="20">
         <v>100</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G25" s="23">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="24.75">
+      <c r="A26" s="75"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" ht="24.75">
-      <c r="A25" s="71"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="20">
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
         <v>150</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="24">
-      <c r="A26" s="71"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="24" t="s">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="24">
+      <c r="A27" s="75"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="F27" s="26">
+        <v>0</v>
+      </c>
+      <c r="G27" s="27">
+        <v>150</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A28" s="75"/>
+      <c r="B28" s="61">
+        <v>18</v>
+      </c>
+      <c r="C28" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="27">
-        <v>150</v>
-      </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="57">
-        <v>18</v>
-      </c>
-      <c r="C27" s="77" t="s">
+      <c r="D28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="E28" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="29">
-        <v>30</v>
-      </c>
-      <c r="G27" s="30">
-        <v>30</v>
-      </c>
-      <c r="H27" s="60"/>
-    </row>
-    <row r="28" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="75"/>
       <c r="F28" s="29">
         <v>30</v>
       </c>
       <c r="G28" s="30">
         <v>30</v>
       </c>
-      <c r="H28" s="61"/>
-    </row>
-    <row r="29" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="10">
+      <c r="H28" s="64"/>
+    </row>
+    <row r="29" spans="1:8" ht="42.75" customHeight="1">
+      <c r="A29" s="75"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="79"/>
+      <c r="F29" s="29">
+        <v>30</v>
+      </c>
+      <c r="G29" s="30">
+        <v>30</v>
+      </c>
+      <c r="H29" s="65"/>
+    </row>
+    <row r="30" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A30" s="75"/>
+      <c r="B30" s="10">
         <v>19</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C30" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="E30" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="F30" s="29">
+        <v>80</v>
+      </c>
+      <c r="G30" s="29">
+        <v>80</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="27" customHeight="1">
+      <c r="A31" s="75"/>
+      <c r="B31" s="61">
+        <v>20</v>
+      </c>
+      <c r="C31" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="29">
+      <c r="D31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="29">
+        <v>15</v>
+      </c>
+      <c r="G31" s="29">
+        <v>15</v>
+      </c>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="75"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="80"/>
+      <c r="F32" s="29">
+        <v>10</v>
+      </c>
+      <c r="G32" s="29">
+        <v>10</v>
+      </c>
+      <c r="H32" s="65"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.75">
+      <c r="A33" s="75"/>
+      <c r="B33" s="61">
+        <v>21</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="71">
+        <v>110</v>
+      </c>
+      <c r="G33" s="71">
+        <v>110</v>
+      </c>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8" ht="24.75">
+      <c r="A34" s="75"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="66"/>
+    </row>
+    <row r="35" spans="1:8" ht="24.75">
+      <c r="A35" s="75"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="78"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:8" ht="33" customHeight="1">
+      <c r="A36" s="75"/>
+      <c r="B36" s="10">
+        <v>22</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="35">
+        <v>260</v>
+      </c>
+      <c r="G36" s="30">
+        <v>260</v>
+      </c>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" ht="36">
+      <c r="A37" s="75"/>
+      <c r="B37" s="10">
+        <v>23</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="30">
+        <v>28</v>
+      </c>
+      <c r="G37" s="29">
+        <v>28</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A38" s="75"/>
+      <c r="B38" s="61">
+        <v>24</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="37">
+        <v>0</v>
+      </c>
+      <c r="G38" s="38">
+        <v>20</v>
+      </c>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" ht="24">
+      <c r="A39" s="75"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="82"/>
+      <c r="F39" s="37">
+        <v>0</v>
+      </c>
+      <c r="G39" s="38">
+        <v>16</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" ht="36">
+      <c r="A40" s="75"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="37">
+        <v>0</v>
+      </c>
+      <c r="G40" s="38">
+        <v>150</v>
+      </c>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A41" s="75"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="29">
-        <v>80</v>
-      </c>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" ht="27" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="57">
-        <v>20</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="29">
+      <c r="E41" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="43">
+        <v>0</v>
+      </c>
+      <c r="G41" s="43">
+        <v>56</v>
+      </c>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A42" s="75"/>
+      <c r="B42" s="10">
+        <v>25</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="46">
+        <v>70</v>
+      </c>
+      <c r="G42" s="46">
+        <v>70</v>
+      </c>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="75"/>
+      <c r="B43" s="61">
+        <v>26</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="57">
         <v>15</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G43" s="59">
         <v>15</v>
       </c>
-      <c r="H30" s="60"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="76"/>
-      <c r="F31" s="29">
-        <v>10</v>
-      </c>
-      <c r="G31" s="29">
-        <v>10</v>
-      </c>
-      <c r="H31" s="61"/>
-    </row>
-    <row r="32" spans="1:8" ht="24.75">
-      <c r="A32" s="71"/>
-      <c r="B32" s="57">
-        <v>21</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="67">
-        <v>110</v>
-      </c>
-      <c r="G32" s="67">
-        <v>110</v>
-      </c>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" ht="24.75">
-      <c r="A33" s="71"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="62"/>
-    </row>
-    <row r="34" spans="1:8" ht="24.75">
-      <c r="A34" s="71"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="61"/>
-    </row>
-    <row r="35" spans="1:8" ht="33" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="10">
-        <v>22</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="35">
-        <v>260</v>
-      </c>
-      <c r="G35" s="30">
-        <v>260</v>
-      </c>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" ht="36">
-      <c r="A36" s="71"/>
-      <c r="B36" s="10">
-        <v>23</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="30">
-        <v>28</v>
-      </c>
-      <c r="G36" s="29">
-        <v>28</v>
-      </c>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="57">
-        <v>24</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="38">
-        <v>20</v>
-      </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" ht="24">
-      <c r="A38" s="71"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="38">
-        <v>16</v>
-      </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8" ht="36">
-      <c r="A39" s="71"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="38">
-        <v>150</v>
-      </c>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="43">
-        <v>56</v>
-      </c>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="10">
-        <v>25</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="46">
-        <v>70</v>
-      </c>
-      <c r="G41" s="46">
-        <v>70</v>
-      </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="71"/>
-      <c r="B42" s="57">
-        <v>26</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="44" t="s">
+      <c r="H43" s="64"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="75"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="53">
-        <v>15</v>
-      </c>
-      <c r="G42" s="55">
-        <v>15</v>
-      </c>
-      <c r="H42" s="60"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="71"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="44" t="s">
+      <c r="E44" s="55"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="66"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="75"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="62"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="71"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="44" t="s">
+      <c r="E45" s="55"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="66"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A46" s="76"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="62"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A45" s="72"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="73"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A9:A45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A10:A46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="B43:B46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2453,7 +2735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2466,7 +2748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CPRS/Excel/可利特.xlsx
+++ b/CPRS/Excel/可利特.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>项目</t>
   </si>
@@ -475,16 +475,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>姓名：</t>
-  </si>
-  <si>
-    <t>单位：</t>
-  </si>
-  <si>
-    <t>体检号：</t>
-  </si>
-  <si>
-    <t>可利特体检检查模版</t>
+    <t>可利特医院体检项目表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +583,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -607,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -674,51 +673,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -789,46 +743,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -843,17 +771,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -886,6 +803,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -893,7 +823,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -922,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,18 +871,9 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,12 +889,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1064,169 +979,160 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1544,7 +1450,7 @@
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1559,321 +1465,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="44.25" customHeight="1">
-      <c r="A1" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:256" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="49"/>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="49"/>
-      <c r="BW2" s="49"/>
-      <c r="BX2" s="49"/>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="49"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="49"/>
-      <c r="CE2" s="49"/>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="49"/>
-      <c r="CH2" s="49"/>
-      <c r="CI2" s="49"/>
-      <c r="CJ2" s="49"/>
-      <c r="CK2" s="49"/>
-      <c r="CL2" s="49"/>
-      <c r="CM2" s="49"/>
-      <c r="CN2" s="49"/>
-      <c r="CO2" s="49"/>
-      <c r="CP2" s="49"/>
-      <c r="CQ2" s="49"/>
-      <c r="CR2" s="49"/>
-      <c r="CS2" s="49"/>
-      <c r="CT2" s="49"/>
-      <c r="CU2" s="49"/>
-      <c r="CV2" s="49"/>
-      <c r="CW2" s="49"/>
-      <c r="CX2" s="49"/>
-      <c r="CY2" s="49"/>
-      <c r="CZ2" s="49"/>
-      <c r="DA2" s="49"/>
-      <c r="DB2" s="49"/>
-      <c r="DC2" s="49"/>
-      <c r="DD2" s="49"/>
-      <c r="DE2" s="49"/>
-      <c r="DF2" s="49"/>
-      <c r="DG2" s="49"/>
-      <c r="DH2" s="49"/>
-      <c r="DI2" s="49"/>
-      <c r="DJ2" s="49"/>
-      <c r="DK2" s="49"/>
-      <c r="DL2" s="49"/>
-      <c r="DM2" s="49"/>
-      <c r="DN2" s="49"/>
-      <c r="DO2" s="49"/>
-      <c r="DP2" s="49"/>
-      <c r="DQ2" s="49"/>
-      <c r="DR2" s="49"/>
-      <c r="DS2" s="49"/>
-      <c r="DT2" s="49"/>
-      <c r="DU2" s="49"/>
-      <c r="DV2" s="49"/>
-      <c r="DW2" s="49"/>
-      <c r="DX2" s="49"/>
-      <c r="DY2" s="49"/>
-      <c r="DZ2" s="49"/>
-      <c r="EA2" s="49"/>
-      <c r="EB2" s="49"/>
-      <c r="EC2" s="49"/>
-      <c r="ED2" s="49"/>
-      <c r="EE2" s="49"/>
-      <c r="EF2" s="49"/>
-      <c r="EG2" s="49"/>
-      <c r="EH2" s="49"/>
-      <c r="EI2" s="49"/>
-      <c r="EJ2" s="49"/>
-      <c r="EK2" s="49"/>
-      <c r="EL2" s="49"/>
-      <c r="EM2" s="49"/>
-      <c r="EN2" s="49"/>
-      <c r="EO2" s="49"/>
-      <c r="EP2" s="49"/>
-      <c r="EQ2" s="49"/>
-      <c r="ER2" s="49"/>
-      <c r="ES2" s="49"/>
-      <c r="ET2" s="49"/>
-      <c r="EU2" s="49"/>
-      <c r="EV2" s="49"/>
-      <c r="EW2" s="49"/>
-      <c r="EX2" s="49"/>
-      <c r="EY2" s="49"/>
-      <c r="EZ2" s="49"/>
-      <c r="FA2" s="49"/>
-      <c r="FB2" s="49"/>
-      <c r="FC2" s="49"/>
-      <c r="FD2" s="49"/>
-      <c r="FE2" s="49"/>
-      <c r="FF2" s="49"/>
-      <c r="FG2" s="49"/>
-      <c r="FH2" s="49"/>
-      <c r="FI2" s="49"/>
-      <c r="FJ2" s="49"/>
-      <c r="FK2" s="49"/>
-      <c r="FL2" s="49"/>
-      <c r="FM2" s="49"/>
-      <c r="FN2" s="49"/>
-      <c r="FO2" s="49"/>
-      <c r="FP2" s="49"/>
-      <c r="FQ2" s="49"/>
-      <c r="FR2" s="49"/>
-      <c r="FS2" s="49"/>
-      <c r="FT2" s="49"/>
-      <c r="FU2" s="49"/>
-      <c r="FV2" s="49"/>
-      <c r="FW2" s="49"/>
-      <c r="FX2" s="49"/>
-      <c r="FY2" s="49"/>
-      <c r="FZ2" s="49"/>
-      <c r="GA2" s="49"/>
-      <c r="GB2" s="49"/>
-      <c r="GC2" s="49"/>
-      <c r="GD2" s="49"/>
-      <c r="GE2" s="49"/>
-      <c r="GF2" s="49"/>
-      <c r="GG2" s="49"/>
-      <c r="GH2" s="49"/>
-      <c r="GI2" s="49"/>
-      <c r="GJ2" s="49"/>
-      <c r="GK2" s="49"/>
-      <c r="GL2" s="49"/>
-      <c r="GM2" s="49"/>
-      <c r="GN2" s="49"/>
-      <c r="GO2" s="49"/>
-      <c r="GP2" s="49"/>
-      <c r="GQ2" s="49"/>
-      <c r="GR2" s="49"/>
-      <c r="GS2" s="49"/>
-      <c r="GT2" s="49"/>
-      <c r="GU2" s="49"/>
-      <c r="GV2" s="49"/>
-      <c r="GW2" s="49"/>
-      <c r="GX2" s="49"/>
-      <c r="GY2" s="49"/>
-      <c r="GZ2" s="49"/>
-      <c r="HA2" s="49"/>
-      <c r="HB2" s="49"/>
-      <c r="HC2" s="49"/>
-      <c r="HD2" s="49"/>
-      <c r="HE2" s="49"/>
-      <c r="HF2" s="49"/>
-      <c r="HG2" s="49"/>
-      <c r="HH2" s="49"/>
-      <c r="HI2" s="49"/>
-      <c r="HJ2" s="49"/>
-      <c r="HK2" s="49"/>
-      <c r="HL2" s="49"/>
-      <c r="HM2" s="49"/>
-      <c r="HN2" s="49"/>
-      <c r="HO2" s="49"/>
-      <c r="HP2" s="49"/>
-      <c r="HQ2" s="49"/>
-      <c r="HR2" s="49"/>
-      <c r="HS2" s="49"/>
-      <c r="HT2" s="49"/>
-      <c r="HU2" s="49"/>
-      <c r="HV2" s="49"/>
-      <c r="HW2" s="49"/>
-      <c r="HX2" s="49"/>
-      <c r="HY2" s="49"/>
-      <c r="HZ2" s="49"/>
-      <c r="IA2" s="49"/>
-      <c r="IB2" s="49"/>
-      <c r="IC2" s="49"/>
-      <c r="ID2" s="49"/>
-      <c r="IE2" s="49"/>
-      <c r="IF2" s="49"/>
-      <c r="IG2" s="49"/>
-      <c r="IH2" s="49"/>
-      <c r="II2" s="49"/>
-      <c r="IJ2" s="49"/>
-      <c r="IK2" s="49"/>
-      <c r="IL2" s="49"/>
-      <c r="IM2" s="49"/>
-      <c r="IN2" s="49"/>
-      <c r="IO2" s="49"/>
-      <c r="IP2" s="49"/>
-      <c r="IQ2" s="49"/>
-      <c r="IR2" s="49"/>
-      <c r="IS2" s="49"/>
-      <c r="IT2" s="49"/>
-      <c r="IU2" s="49"/>
-      <c r="IV2" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:256" s="45" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="44"/>
+      <c r="CK2" s="44"/>
+      <c r="CL2" s="44"/>
+      <c r="CM2" s="44"/>
+      <c r="CN2" s="44"/>
+      <c r="CO2" s="44"/>
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="44"/>
+      <c r="CS2" s="44"/>
+      <c r="CT2" s="44"/>
+      <c r="CU2" s="44"/>
+      <c r="CV2" s="44"/>
+      <c r="CW2" s="44"/>
+      <c r="CX2" s="44"/>
+      <c r="CY2" s="44"/>
+      <c r="CZ2" s="44"/>
+      <c r="DA2" s="44"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
+      <c r="DD2" s="44"/>
+      <c r="DE2" s="44"/>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
+      <c r="DH2" s="44"/>
+      <c r="DI2" s="44"/>
+      <c r="DJ2" s="44"/>
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="44"/>
+      <c r="DM2" s="44"/>
+      <c r="DN2" s="44"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="44"/>
+      <c r="DQ2" s="44"/>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="44"/>
+      <c r="DU2" s="44"/>
+      <c r="DV2" s="44"/>
+      <c r="DW2" s="44"/>
+      <c r="DX2" s="44"/>
+      <c r="DY2" s="44"/>
+      <c r="DZ2" s="44"/>
+      <c r="EA2" s="44"/>
+      <c r="EB2" s="44"/>
+      <c r="EC2" s="44"/>
+      <c r="ED2" s="44"/>
+      <c r="EE2" s="44"/>
+      <c r="EF2" s="44"/>
+      <c r="EG2" s="44"/>
+      <c r="EH2" s="44"/>
+      <c r="EI2" s="44"/>
+      <c r="EJ2" s="44"/>
+      <c r="EK2" s="44"/>
+      <c r="EL2" s="44"/>
+      <c r="EM2" s="44"/>
+      <c r="EN2" s="44"/>
+      <c r="EO2" s="44"/>
+      <c r="EP2" s="44"/>
+      <c r="EQ2" s="44"/>
+      <c r="ER2" s="44"/>
+      <c r="ES2" s="44"/>
+      <c r="ET2" s="44"/>
+      <c r="EU2" s="44"/>
+      <c r="EV2" s="44"/>
+      <c r="EW2" s="44"/>
+      <c r="EX2" s="44"/>
+      <c r="EY2" s="44"/>
+      <c r="EZ2" s="44"/>
+      <c r="FA2" s="44"/>
+      <c r="FB2" s="44"/>
+      <c r="FC2" s="44"/>
+      <c r="FD2" s="44"/>
+      <c r="FE2" s="44"/>
+      <c r="FF2" s="44"/>
+      <c r="FG2" s="44"/>
+      <c r="FH2" s="44"/>
+      <c r="FI2" s="44"/>
+      <c r="FJ2" s="44"/>
+      <c r="FK2" s="44"/>
+      <c r="FL2" s="44"/>
+      <c r="FM2" s="44"/>
+      <c r="FN2" s="44"/>
+      <c r="FO2" s="44"/>
+      <c r="FP2" s="44"/>
+      <c r="FQ2" s="44"/>
+      <c r="FR2" s="44"/>
+      <c r="FS2" s="44"/>
+      <c r="FT2" s="44"/>
+      <c r="FU2" s="44"/>
+      <c r="FV2" s="44"/>
+      <c r="FW2" s="44"/>
+      <c r="FX2" s="44"/>
+      <c r="FY2" s="44"/>
+      <c r="FZ2" s="44"/>
+      <c r="GA2" s="44"/>
+      <c r="GB2" s="44"/>
+      <c r="GC2" s="44"/>
+      <c r="GD2" s="44"/>
+      <c r="GE2" s="44"/>
+      <c r="GF2" s="44"/>
+      <c r="GG2" s="44"/>
+      <c r="GH2" s="44"/>
+      <c r="GI2" s="44"/>
+      <c r="GJ2" s="44"/>
+      <c r="GK2" s="44"/>
+      <c r="GL2" s="44"/>
+      <c r="GM2" s="44"/>
+      <c r="GN2" s="44"/>
+      <c r="GO2" s="44"/>
+      <c r="GP2" s="44"/>
+      <c r="GQ2" s="44"/>
+      <c r="GR2" s="44"/>
+      <c r="GS2" s="44"/>
+      <c r="GT2" s="44"/>
+      <c r="GU2" s="44"/>
+      <c r="GV2" s="44"/>
+      <c r="GW2" s="44"/>
+      <c r="GX2" s="44"/>
+      <c r="GY2" s="44"/>
+      <c r="GZ2" s="44"/>
+      <c r="HA2" s="44"/>
+      <c r="HB2" s="44"/>
+      <c r="HC2" s="44"/>
+      <c r="HD2" s="44"/>
+      <c r="HE2" s="44"/>
+      <c r="HF2" s="44"/>
+      <c r="HG2" s="44"/>
+      <c r="HH2" s="44"/>
+      <c r="HI2" s="44"/>
+      <c r="HJ2" s="44"/>
+      <c r="HK2" s="44"/>
+      <c r="HL2" s="44"/>
+      <c r="HM2" s="44"/>
+      <c r="HN2" s="44"/>
+      <c r="HO2" s="44"/>
+      <c r="HP2" s="44"/>
+      <c r="HQ2" s="44"/>
+      <c r="HR2" s="44"/>
+      <c r="HS2" s="44"/>
+      <c r="HT2" s="44"/>
+      <c r="HU2" s="44"/>
+      <c r="HV2" s="44"/>
+      <c r="HW2" s="44"/>
+      <c r="HX2" s="44"/>
+      <c r="HY2" s="44"/>
+      <c r="HZ2" s="44"/>
+      <c r="IA2" s="44"/>
+      <c r="IB2" s="44"/>
+      <c r="IC2" s="44"/>
+      <c r="ID2" s="44"/>
+      <c r="IE2" s="44"/>
+      <c r="IF2" s="44"/>
+      <c r="IG2" s="44"/>
+      <c r="IH2" s="44"/>
+      <c r="II2" s="44"/>
+      <c r="IJ2" s="44"/>
+      <c r="IK2" s="44"/>
+      <c r="IL2" s="44"/>
+      <c r="IM2" s="44"/>
+      <c r="IN2" s="44"/>
+      <c r="IO2" s="44"/>
+      <c r="IP2" s="44"/>
+      <c r="IQ2" s="44"/>
+      <c r="IR2" s="44"/>
+      <c r="IS2" s="44"/>
+      <c r="IT2" s="44"/>
+      <c r="IU2" s="44"/>
+      <c r="IV2" s="44"/>
     </row>
     <row r="3" spans="1:256">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="88" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="92" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:256">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="14" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="89"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:256" ht="31.5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
@@ -1892,12 +1792,12 @@
       <c r="G5" s="3">
         <v>16</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="67.5">
-      <c r="A6" s="90"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1916,12 +1816,12 @@
       <c r="G6" s="3">
         <v>18</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="43" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="31.5">
-      <c r="A7" s="90"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1938,22 +1838,22 @@
       <c r="G7" s="3">
         <v>16</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="40.5">
-      <c r="A8" s="91"/>
-      <c r="B8" s="11">
+      <c r="A8" s="51"/>
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4">
@@ -1962,36 +1862,36 @@
       <c r="G8" s="4">
         <v>50</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:256" ht="23.25" customHeight="1">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58">
         <v>100</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:256" ht="67.5">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="5">
@@ -2000,20 +1900,22 @@
       <c r="G10" s="5">
         <v>120</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:256" ht="40.5" customHeight="1">
-      <c r="A11" s="75"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="47" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="3">
@@ -2022,666 +1924,765 @@
       <c r="G11" s="3">
         <v>75</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" spans="1:256" ht="54">
-      <c r="A12" s="75"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="1">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="3">
         <v>75</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:256" ht="27">
-      <c r="A13" s="75"/>
+      <c r="H12" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="31.5">
+      <c r="A13" s="63"/>
       <c r="B13" s="1">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>75</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:256" ht="27">
-      <c r="A14" s="75"/>
-      <c r="B14" s="11">
+      <c r="H13" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="31.5">
+      <c r="A14" s="63"/>
+      <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="4">
         <v>0</v>
       </c>
       <c r="G14" s="4">
         <v>70</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:256" ht="51" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="11">
+      <c r="A15" s="63"/>
+      <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>20</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="15">
         <v>20</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:256" ht="49.5" customHeight="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="10">
+      <c r="A16" s="63"/>
+      <c r="B16" s="7">
         <v>11</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="15">
         <v>15</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="15">
         <v>15</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="10">
+      <c r="A17" s="63"/>
+      <c r="B17" s="7">
         <v>12</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="15">
         <v>45</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="15">
         <v>45</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="61">
+      <c r="A18" s="63"/>
+      <c r="B18" s="60">
         <v>13</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="68">
         <v>20</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="68">
         <v>20</v>
       </c>
-      <c r="H18" s="64"/>
+      <c r="H18" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A19" s="75"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="21" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="65"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="10">
+      <c r="A20" s="63"/>
+      <c r="B20" s="7">
         <v>14</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="15">
         <v>8</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="15">
         <v>8</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="10">
+      <c r="A21" s="63"/>
+      <c r="B21" s="7">
         <v>15</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="15">
         <v>8</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="15">
         <v>8</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="36">
-      <c r="A22" s="75"/>
-      <c r="B22" s="10">
+      <c r="A22" s="63"/>
+      <c r="B22" s="7">
         <v>16</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="15">
         <v>40</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="15">
         <v>40</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="61">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60">
         <v>17</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>40</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="15">
         <v>40</v>
       </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="24">
-      <c r="A24" s="75"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="21" t="s">
+      <c r="H23" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5">
+      <c r="A24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="15">
         <v>40</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="15">
         <v>40</v>
       </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" ht="24.75">
-      <c r="A25" s="75"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="21" t="s">
+      <c r="H24" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="31.5">
+      <c r="A25" s="63"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="15">
         <v>100</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="18">
         <v>0</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="24.75">
-      <c r="A26" s="75"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="21" t="s">
+      <c r="H25" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.5">
+      <c r="A26" s="63"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="15">
         <v>0</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="15">
         <v>150</v>
       </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="24">
-      <c r="A27" s="75"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="24" t="s">
+      <c r="H26" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="31.5">
+      <c r="A27" s="63"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="21">
         <v>0</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="22">
         <v>150</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="61">
+      <c r="A28" s="63"/>
+      <c r="B28" s="60">
         <v>18</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="24">
         <v>30</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="25">
         <v>30</v>
       </c>
-      <c r="H28" s="64"/>
+      <c r="H28" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="29">
+      <c r="E29" s="73"/>
+      <c r="F29" s="24">
         <v>30</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="25">
         <v>30</v>
       </c>
-      <c r="H29" s="65"/>
+      <c r="H29" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="10">
+      <c r="A30" s="63"/>
+      <c r="B30" s="7">
         <v>19</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="24">
         <v>80</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="24">
         <v>80</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="61">
+      <c r="A31" s="63"/>
+      <c r="B31" s="60">
         <v>20</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="24">
         <v>15</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="24">
         <v>15</v>
       </c>
-      <c r="H31" s="64"/>
+      <c r="H31" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="28" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="29">
+      <c r="E32" s="74"/>
+      <c r="F32" s="24">
         <v>10</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="24">
         <v>10</v>
       </c>
-      <c r="H32" s="65"/>
-    </row>
-    <row r="33" spans="1:8" ht="24.75">
-      <c r="A33" s="75"/>
-      <c r="B33" s="61">
+      <c r="H32" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="31.5">
+      <c r="A33" s="63"/>
+      <c r="B33" s="60">
         <v>21</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="69">
         <v>110</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="69">
         <v>110</v>
       </c>
-      <c r="H33" s="64"/>
-    </row>
-    <row r="34" spans="1:8" ht="24.75">
-      <c r="A34" s="75"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="33" t="s">
+      <c r="H33" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="31.5">
+      <c r="A34" s="63"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="66"/>
-    </row>
-    <row r="35" spans="1:8" ht="24.75">
-      <c r="A35" s="75"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="33" t="s">
+      <c r="E34" s="72"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="31.5">
+      <c r="A35" s="63"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="65"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="33" customHeight="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="10">
+      <c r="A36" s="63"/>
+      <c r="B36" s="7">
         <v>22</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="30">
         <v>260</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="25">
         <v>260</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="36">
-      <c r="A37" s="75"/>
-      <c r="B37" s="10">
+      <c r="A37" s="63"/>
+      <c r="B37" s="7">
         <v>23</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="25">
         <v>28</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="24">
         <v>28</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A38" s="75"/>
-      <c r="B38" s="61">
+      <c r="A38" s="63"/>
+      <c r="B38" s="60">
         <v>24</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="32">
         <v>0</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="33">
         <v>20</v>
       </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8" ht="24">
-      <c r="A39" s="75"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="36" t="s">
+      <c r="H38" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="31.5">
+      <c r="A39" s="63"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="37">
+      <c r="E39" s="76"/>
+      <c r="F39" s="32">
         <v>0</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="33">
         <v>16</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="36">
-      <c r="A40" s="75"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="39" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="32">
         <v>0</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="33">
         <v>150</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="41" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="38">
         <v>0</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="38">
         <v>56</v>
       </c>
-      <c r="H41" s="15"/>
+      <c r="H41" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A42" s="75"/>
-      <c r="B42" s="10">
+      <c r="A42" s="63"/>
+      <c r="B42" s="7">
         <v>25</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="41">
         <v>70</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="41">
         <v>70</v>
       </c>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="75"/>
-      <c r="B43" s="61">
+      <c r="H42" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="31.5">
+      <c r="A43" s="63"/>
+      <c r="B43" s="60">
         <v>26</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="F43" s="57">
+      <c r="F43" s="85">
         <v>15</v>
       </c>
-      <c r="G43" s="59">
+      <c r="G43" s="87">
         <v>15</v>
       </c>
-      <c r="H43" s="64"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="75"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="44" t="s">
+      <c r="H43" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="31.5">
+      <c r="A44" s="63"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="66"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="75"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="44" t="s">
+      <c r="E44" s="83"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="31.5">
+      <c r="A45" s="63"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="66"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A46" s="76"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="47" t="s">
+      <c r="E45" s="83"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A46" s="64"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="56"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="77"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="41">
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A10:A46"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="H3:H4"/>
@@ -2695,41 +2696,10 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A10:A46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
